--- a/Lab2/3.4 embedded lab2.xlsx
+++ b/Lab2/3.4 embedded lab2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deiro_jgs0sqk\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrodemartini/Documents/0_Embedded/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE15A052-6DE1-44BA-8FF5-17AA98D41FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598106E3-FD08-3D4F-B9FB-09258995E316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1423F697-8337-426D-8222-FFD15FF1F2C4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1423F697-8337-426D-8222-FFD15FF1F2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -393,178 +393,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6F159C-2C89-438C-A0A3-68F5B1CC293E}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
         <v>2200</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <f>B1*10^-6</f>
+        <v>2.1999999999999997E-3</v>
+      </c>
+      <c r="E1">
+        <f>D1*10^3</f>
+        <v>2.1999999999999997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="C2">
         <v>3013.88</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f t="shared" ref="D2:D22" si="0">B2*10^-6</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E22" si="1">D2*10^3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>2800</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="C5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
         <v>2230</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2.2299999999999998E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
         <v>2900</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
         <v>2675.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.6750100000000002E-3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2.6750100000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
         <v>2365.92</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2.3659200000000001E-3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>2.36592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
         <v>2698.42</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2.69842E-3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>2.69842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11">
         <v>2635.83</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.6358299999999996E-3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>2.6358299999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
         <v>2260</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
         <v>3010</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3.0099999999999997E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14">
         <v>3000.51</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.0005100000000001E-3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>3.0005100000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15">
         <v>2415.1999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2.4151999999999997E-3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>2.4151999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16">
         <v>2000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17">
         <v>2900</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18">
         <v>2429.89</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2.4298899999999997E-3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>2.4298899999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19">
         <v>2290.86</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>2.29086E-3</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>2.2908599999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
         <v>2726.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2.7263999999999999E-3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>2.7263999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -572,8 +742,16 @@
         <f>AVERAGE(B1:B20)</f>
         <v>2552.1133333333332</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2.5521133333333331E-3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>2.5521133333333332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -582,7 +760,7 @@
         <v>3013.88</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
